--- a/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
+++ b/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
@@ -451,799 +451,1079 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.6647</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>008120</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>万家自主创新混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.44</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9782</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2717</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7791</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7318</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6713</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4794</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>008121</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>万家自主创新混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>6.44</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008633</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008634</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>050010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时特许价值混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>050022</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时回报混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>73.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000522</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华润元大信息传媒科技混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>80.50</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10.41</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>610004</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信达澳银中小盘混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006080</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>海富通电子信息传媒产业股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006081</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>海富通电子信息传媒产业股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>360011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>光大保德信动态优选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519674</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银河创新成长混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001404</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商移动互联网产业股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519033</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>海富通国策导向混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>506002</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>60.73</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>506005</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时科创板三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>610006</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>信达澳银产业升级混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001216</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001217</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>620004</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>金元顺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>89.63</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007854</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>光大保德信景气先锋混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005311</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005312</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1253,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,15 +1554,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050010</t>
+          <t>519674</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时特许价值混合A</t>
+          <t>银河创新成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>142.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.2145</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004930</t>
+          <t>506005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合A</t>
+          <t>博时科创板三年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.93</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1939</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004931</t>
+          <t>008120</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合C</t>
+          <t>万家自主创新混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.93</t>
+          <t>33.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1662</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007854</t>
+          <t>005311</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>光大保德信景气先锋混合</t>
+          <t>万家经济新动能混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>15.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0826</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>165528</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信诚鼎利灵活配置混合（LOF）</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>53.26</t>
+          <t>26.92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8049</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009882</t>
+          <t>506002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合A</t>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>75.36</t>
+          <t>27.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7933</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009883</t>
+          <t>290011</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合C</t>
+          <t>泰信中小盘精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>75.36</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7580</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009986</t>
+          <t>005312</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘创新领航混合A</t>
+          <t>万家经济新动能混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81.44</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6024</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009987</t>
+          <t>000698</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘创新领航混合C</t>
+          <t>宝盈科技30灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>81.44</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4778</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000522</t>
+          <t>001210</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华润元大信息传媒科技混合</t>
+          <t>天弘互联网灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>79.16</t>
+          <t>11.83</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4353</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>290011</t>
+          <t>050022</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰信中小盘精选混合</t>
+          <t>博时回报混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4248</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000698</t>
+          <t>008633</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>宝盈科技30灵活配置混合</t>
+          <t>万家科技创新混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>360011</t>
+          <t>009986</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>光大保德信动态优选混合</t>
+          <t>天弘创新领航混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>72.51</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3323</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>050010</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>博时特许价值混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>506002</t>
+          <t>008121</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+          <t>万家自主创新混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>80.26</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>506005</t>
+          <t>000522</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时科创板三年定期开放混合</t>
+          <t>华润元大信息传媒科技混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>85.38</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001210</t>
+          <t>005119</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天弘互联网灵活配置混合</t>
+          <t>银华智荟内在价值灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001339</t>
+          <t>007854</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>兴银鼎新灵活配置混合</t>
+          <t>光大保德信景气先锋混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>050022</t>
+          <t>008634</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时回报混合</t>
+          <t>万家科技创新混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>73.89</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519674</t>
+          <t>360011</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>银河创新成长混合</t>
+          <t>光大保德信动态优选混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>72.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001970</t>
+          <t>610006</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合A</t>
+          <t>信达澳银产业升级混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002580</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合C</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1920,15 +2430,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>91.79</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>5.14</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>610006</t>
+          <t>004930</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>信达澳银产业升级混合</t>
+          <t>华润元大价值优选混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008633</t>
+          <t>009987</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>万家科技创新混合A</t>
+          <t>天弘创新领航混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008634</t>
+          <t>001970</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>万家科技创新混合C</t>
+          <t>泰信鑫选灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005119</t>
+          <t>165528</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>银华智荟内在价值灵活配置混合</t>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005311</t>
+          <t>009883</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>万家经济新动能混合A</t>
+          <t>华润元大核心动力混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>7</v>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005312</t>
+          <t>004931</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>万家经济新动能混合C</t>
+          <t>华润元大价值优选混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008120</t>
+          <t>001339</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>万家自主创新混合A</t>
+          <t>兴银鼎新灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2134,26 +2724,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008121</t>
+          <t>002580</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>万家自主创新混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
+++ b/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2732,7 +2733,6 @@
           <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>92.64</t>
@@ -2748,6 +2748,1846 @@
       </c>
       <c r="H32" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>147.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.2176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>171.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.2244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0940</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5432</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3753</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1286</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8615</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7956</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6504</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6183</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5509</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3569</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>51.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
+++ b/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4593,4 +4594,3176 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>158.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.2524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.5147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>142.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6509</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3163</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1548</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9780</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5206</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2764</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1800</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0369</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8839</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8696</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8526</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6147</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5618</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4513</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3301</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3118</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>51.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>31.73</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>31.73</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>51.31</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
+++ b/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7766,4 +7767,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
+++ b/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7775,7 +7776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7786,17 +7787,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7806,14 +7827,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.2</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.1334</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7822,14 +7865,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.38</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>138.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.5223</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7838,14 +7903,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.39</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>145.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3947</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7854,13 +7941,5053 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5933</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3304</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8308</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7287</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7067</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6896</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6365</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2485</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9640</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9404</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9363</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9303</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8878</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8511</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8392</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8190</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7919</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7231</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7085</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6557</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6527</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6168</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5573</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5047</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4998</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4293</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4244</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3957</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3950</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3307</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2942</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2659</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>68.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011595</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>融通核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>33.36</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>33.36</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011596</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>融通核心趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>27</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>26.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
+++ b/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12886,7 +12887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12897,17 +12898,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12917,14 +12938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>133</v>
-      </c>
-      <c r="D2" t="n">
-        <v>75.11</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.9031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -12933,14 +12976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.2</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>112.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.2947</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -12949,14 +13014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.38</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>107.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5498</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -12965,14 +13052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.39</v>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8515</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -12981,13 +13090,3853 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0944</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7529</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6756</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6442</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6121</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>44.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4297</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3639</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3534</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3388</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3174</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1085</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0884</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7893</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7714</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009998</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根慧见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6839</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5606</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001126</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根卓越制造股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4993</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4938</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3870</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3619</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3386</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>62.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>51.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008315</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>68.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>70.63</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>68.14</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>102</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>133</v>
+      </c>
+      <c r="D3" t="n">
+        <v>75.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>26.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
+++ b/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16819,7 +16820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16830,17 +16831,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16850,14 +16871,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>102</v>
-      </c>
-      <c r="D2" t="n">
-        <v>63.84</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.1257</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -16866,14 +16909,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>133</v>
-      </c>
-      <c r="D3" t="n">
-        <v>75.11</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.5467</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -16882,14 +16947,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.2</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0203</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -16898,14 +16985,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>47</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43.38</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8320</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -16914,14 +17023,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>31</v>
-      </c>
-      <c r="D6" t="n">
-        <v>22.39</v>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -16930,13 +17061,3145 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2957</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2500</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1051</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5732</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5440</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4348</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3475</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2582</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2258</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9872</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7718</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7374</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6692</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6142</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5543</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5497</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4263</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3661</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2813</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D3" t="n">
+        <v>63.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>133</v>
+      </c>
+      <c r="D4" t="n">
+        <v>75.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>26.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
+++ b/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>60.5</v>
+        <v>31.93</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>63.84</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D4" t="n">
-        <v>75.11</v>
+        <v>63.84</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="D5" t="n">
-        <v>56.2</v>
+        <v>75.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>43.38</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D7" t="n">
-        <v>22.39</v>
+        <v>43.38</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>27</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>26.16</v>
       </c>
     </row>
@@ -600,6 +617,1772 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8290</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6985</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5127</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2929</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏复兴混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1616</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0258</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8851</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7614</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4742</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4062</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013962</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013963</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3845,7 +5628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7777,7 +9560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12887,7 +14670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16059,7 +17842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17899,7 +19682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19126,7 +20909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
+++ b/数据整理/stocks/A股/科创板/688536-思瑞浦.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>31.93</v>
+        <v>44.62</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>60.5</v>
+        <v>31.93</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>63.84</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>75.11</v>
+        <v>63.84</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="D6" t="n">
-        <v>56.2</v>
+        <v>75.11</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D7" t="n">
-        <v>43.38</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
-        <v>22.39</v>
+        <v>43.38</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1112 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>27</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>26.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.6647</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9782</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2717</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7791</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7318</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6713</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4794</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1716,2642 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.5028</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.2600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3583</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0941</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8957</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4322</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时科创板三年定开混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3730</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏复兴混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9327</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9271</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8980</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5306</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4449</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013962</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013963</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3364</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3299</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2760</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>588200</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华创新动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>51.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>588290</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015967</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>永赢半导体产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012415</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>德邦上证 G60 创新综合指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>70.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015968</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>永赢半导体产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012416</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>德邦上证 G60 创新综合指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>70.26</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2382,7 +6117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5628,7 +9363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9560,7 +13295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14670,7 +18405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17842,7 +21577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19682,7 +23417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20907,1086 +24642,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519674</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河创新成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>184.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>11.6647</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008120</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家自主创新混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>46.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.9746</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005311</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.2109</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>506005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时科创板三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.9782</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001216</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>25.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2717</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001217</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9227</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>506002</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>31.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>60.73</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7791</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>050022</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时回报混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>73.06</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.7318</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005312</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6713</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008633</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>万家科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4794</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000522</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华润元大信息传媒科技混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.50</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10.41</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3779</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001404</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商移动互联网产业股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3658</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>050010</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时特许价值混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3562</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008121</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家自主创新混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2479</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519033</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>海富通国策导向混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2300</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007854</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>光大保德信景气先锋混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2013</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008634</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>万家科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1478</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006081</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>海富通电子信息传媒产业股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1010</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0866</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>360011</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>光大保德信动态优选混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0837</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0646</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>610006</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>信达澳银产业升级混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0630</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>610004</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>信达澳银中小盘混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0565</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006080</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>海富通电子信息传媒产业股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>620004</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>金元顺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>89.63</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>